--- a/data/mistakes/stanza_mistakes.xlsx
+++ b/data/mistakes/stanza_mistakes.xlsx
@@ -541,7 +541,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>dokumenty</t>
+          <t>dokument</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
